--- a/easy_create_r_code_for_quota_edit.xlsx
+++ b/easy_create_r_code_for_quota_edit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\magram_projects\SSt_quota_edit\SurveyStudio json quota editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E0CB5-D0A6-4BD5-837B-BEF22EF1D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3E93F3-E22A-4591-876C-14516BF8FC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53738E3-5048-4D40-B169-D8640374431B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="69">
   <si>
     <t>json_data &lt;- edit_json_file_by_quota_name(json_data, "</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Скопировать и выполнить этот  скрипт в R</t>
   </si>
   <si>
-    <t>Полные интервью</t>
-  </si>
-  <si>
     <t>14 – 19</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Йота - Регион Москва</t>
   </si>
   <si>
-    <t>Тинькофф мобайл - Регион Москва</t>
-  </si>
-  <si>
     <t>МТС - регион Другие регионы</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Йота - регион Другие регионы</t>
   </si>
   <si>
-    <t>Тинькофф мобайл - регион Другие регионы</t>
-  </si>
-  <si>
     <t>Приморский край</t>
   </si>
   <si>
@@ -235,13 +226,22 @@
   </si>
   <si>
     <t>Юг: другое</t>
+  </si>
+  <si>
+    <t>Полные интервью (БЕЗ ТИНЬКОФФ)</t>
+  </si>
+  <si>
+    <t>Не Тинькоф</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +257,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,10 +313,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,9 +337,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{DC8062F1-D558-4FC1-A676-773A6B89E6D3}"/>
+    <cellStyle name="Обычный 3" xfId="4" xr:uid="{D8DF78C5-679A-4CF8-A9DE-D2B7B694B404}"/>
+    <cellStyle name="Процентный 2" xfId="3" xr:uid="{0C210B39-369F-4391-9D00-29B5ACDD136D}"/>
+    <cellStyle name="Финансовый 2" xfId="2" xr:uid="{6C09D88E-279B-4ABE-BC12-27394E2B3A0F}"/>
+    <cellStyle name="Финансовый 3" xfId="5" xr:uid="{6EC9319F-E773-494E-971F-8A573F4420E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D261B54A-625C-44C3-A35C-013A368881D8}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G65" sqref="G2:G65"/>
+      <selection activeCell="G64" sqref="G2:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,9 +670,9 @@
     <col min="1" max="1" width="64.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="83" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,14 +692,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="5">
         <v>1586</v>
       </c>
-      <c r="C2" s="6">
-        <v>2922</v>
+      <c r="C2" s="9">
+        <v>2930</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
@@ -684,18 +712,16 @@
       </c>
       <c r="G2" s="7" t="str">
         <f>D2&amp;A2&amp;E2&amp;C2&amp;F2</f>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Полные интервью", 2922)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Полные интервью (БЕЗ ТИНЬКОФФ)", 2930)</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>75</v>
-      </c>
-      <c r="C3" s="6">
-        <v>98</v>
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9">
+        <v>2930</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
@@ -707,19 +733,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G66" si="0">D3&amp;A3&amp;E3&amp;C3&amp;F3</f>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "14 – 19", 98)</v>
+        <f>D3&amp;A3&amp;E3&amp;C3&amp;F3</f>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Не Тинькоф", 2930)</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6">
-        <v>756</v>
+        <v>202</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>0</v>
@@ -731,19 +757,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "20 – 29", 756)</v>
+        <f t="shared" ref="G4:G65" si="0">D4&amp;A4&amp;E4&amp;C4&amp;F4</f>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "14 – 19", 202)</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="C5" s="6">
-        <v>971</v>
+        <v>697</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>0</v>
@@ -756,18 +782,18 @@
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "30 – 39", 971)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "20 – 29", 697)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
-        <v>365</v>
+        <v>506</v>
       </c>
       <c r="C6" s="6">
-        <v>655</v>
+        <v>913</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>0</v>
@@ -780,18 +806,18 @@
       </c>
       <c r="G6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "40 – 49", 655)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "30 – 39", 913)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
-        <v>250</v>
+        <v>365</v>
       </c>
       <c r="C7" s="6">
-        <v>442</v>
+        <v>654</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>0</v>
@@ -804,18 +830,18 @@
       </c>
       <c r="G7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "50 – 60", 442)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "40 – 49", 654)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="C8" s="6">
-        <v>208</v>
+        <v>464</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>0</v>
@@ -828,18 +854,18 @@
       </c>
       <c r="G8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "МТС - Регион Москва", 208)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "50 – 60", 464)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
         <v>68</v>
       </c>
       <c r="C9" s="6">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>0</v>
@@ -852,18 +878,18 @@
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Билайн - Регион Москва", 158)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "МТС - Регион Москва", 136)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <v>68</v>
       </c>
       <c r="C10" s="6">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>0</v>
@@ -876,18 +902,18 @@
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Мегафон - Регион Москва", 212)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Билайн - Регион Москва", 139)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>0</v>
@@ -900,18 +926,18 @@
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Теле2 - Регион Москва", 138)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Мегафон - Регион Москва", 137)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>0</v>
@@ -924,18 +950,18 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Йота - Регион Москва", 27)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Теле2 - Регион Москва", 155)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6">
-        <v>10000</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>0</v>
@@ -948,18 +974,18 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тинькофф мобайл - Регион Москва", 10000)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Йота - Регион Москва", 44)</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>280</v>
       </c>
       <c r="C14" s="6">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>0</v>
@@ -972,18 +998,18 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "МТС - регион Другие регионы", 486)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "МТС - регион Другие регионы", 555)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>290</v>
       </c>
       <c r="C15" s="6">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>0</v>
@@ -996,18 +1022,18 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Билайн - регион Другие регионы", 564)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Билайн - регион Другие регионы", 568)</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>297</v>
       </c>
       <c r="C16" s="6">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>0</v>
@@ -1020,18 +1046,18 @@
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Мегафон - регион Другие регионы", 493)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Мегафон - регион Другие регионы", 516)</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5">
         <v>277</v>
       </c>
       <c r="C17" s="6">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>0</v>
@@ -1044,18 +1070,18 @@
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Теле2 - регион Другие регионы", 507)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Теле2 - регион Другие регионы", 516)</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>108</v>
       </c>
       <c r="C18" s="6">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>0</v>
@@ -1068,18 +1094,18 @@
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Йота - регион Другие регионы", 129)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Йота - регион Другие регионы", 164)</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6">
-        <v>10000</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>0</v>
@@ -1092,18 +1118,25 @@
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тинькофф мобайл - регион Другие регионы", 10000)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Приморский край", 66)</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <f>IF(A19=J19,0,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>0</v>
@@ -1116,25 +1149,25 @@
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Приморский край", 71)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Алтайский край", 64)</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K20">
-        <f>IF(A20=J20,0,1)</f>
+        <f t="shared" ref="K20:K64" si="1">IF(A20=J20,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>29</v>
       </c>
       <c r="C21" s="6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>0</v>
@@ -1147,25 +1180,25 @@
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Алтайский край", 58)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Новосибирская область", 64)</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K65" si="1">IF(A21=J21,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>0</v>
@@ -1178,10 +1211,10 @@
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Новосибирская область", 59)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Красноярский край (кроме Норильска)", 65)</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
@@ -1190,13 +1223,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>0</v>
@@ -1209,10 +1242,10 @@
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Красноярский край (кроме Норильска)", 89)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Кемеровская область (кроме Новокузнецка)", 32)</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
@@ -1221,13 +1254,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>0</v>
@@ -1240,10 +1273,10 @@
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Кемеровская область (кроме Новокузнецка)", 32)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Омская область", 30)</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
@@ -1252,13 +1285,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
       </c>
       <c r="C25" s="6">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>0</v>
@@ -1271,10 +1304,10 @@
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Омская область", 23)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Хабаровский край", 33)</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
@@ -1283,13 +1316,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C26" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>0</v>
@@ -1302,10 +1335,10 @@
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Хабаровский край", 23)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Иркутская область", 34)</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
@@ -1314,10 +1347,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6">
         <v>34</v>
@@ -1333,10 +1366,10 @@
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Иркутская область", 34)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Томская область", 34)</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
@@ -1345,13 +1378,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>0</v>
@@ -1364,10 +1397,10 @@
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Томская область", 0)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Восток: другое", 50)</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
@@ -1376,13 +1409,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>0</v>
@@ -1395,10 +1428,10 @@
       </c>
       <c r="G29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Восток: другое", 35)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ленинградская область", 135)</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
@@ -1407,13 +1440,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>0</v>
@@ -1426,10 +1459,10 @@
       </c>
       <c r="G30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ленинградская область", 150)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ярославская область", 89)</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
@@ -1438,13 +1471,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C31" s="6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>0</v>
@@ -1457,10 +1490,10 @@
       </c>
       <c r="G31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ярославская область", 12)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Калининградская область", 32)</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
@@ -1469,13 +1502,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C32" s="6">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>0</v>
@@ -1488,10 +1521,10 @@
       </c>
       <c r="G32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Калининградская область", 17)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Костромская область", 49)</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
@@ -1500,13 +1533,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>0</v>
@@ -1519,10 +1552,10 @@
       </c>
       <c r="G33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Костромская область", 36)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Смоленская область", 40)</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
@@ -1531,13 +1564,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C34" s="6">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>0</v>
@@ -1550,10 +1583,10 @@
       </c>
       <c r="G34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Смоленская область", 42)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тверская область", 33)</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
@@ -1562,13 +1595,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C35" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>0</v>
@@ -1581,10 +1614,10 @@
       </c>
       <c r="G35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тверская область", 31)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ивановская область", 34)</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
@@ -1593,13 +1626,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>0</v>
@@ -1612,10 +1645,10 @@
       </c>
       <c r="G36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ивановская область", 35)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тульская область", 33)</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
@@ -1624,13 +1657,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5">
         <v>41</v>
       </c>
-      <c r="B37" s="5">
-        <v>16</v>
-      </c>
       <c r="C37" s="6">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>0</v>
@@ -1643,10 +1676,10 @@
       </c>
       <c r="G37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тульская область", 28)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Запад: другое", 68)</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
@@ -1655,13 +1688,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="C38" s="6">
-        <v>53</v>
+        <v>611</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>0</v>
@@ -1674,10 +1707,10 @@
       </c>
       <c r="G38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Запад: другое", 53)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Московская область", 611)</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
@@ -1686,13 +1719,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5">
-        <v>318</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6">
-        <v>743</v>
+        <v>73</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>0</v>
@@ -1705,10 +1738,10 @@
       </c>
       <c r="G39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Московская область", 743)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Татарстан", 73)</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
@@ -1717,13 +1750,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C40" s="6">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>0</v>
@@ -1736,10 +1769,10 @@
       </c>
       <c r="G40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Татарстан", 53)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Башкортостан", 65)</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
@@ -1748,13 +1781,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C41" s="6">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>0</v>
@@ -1767,10 +1800,10 @@
       </c>
       <c r="G41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Башкортостан", 68)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Свердловская область", 64)</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
@@ -1779,13 +1812,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>0</v>
@@ -1798,10 +1831,10 @@
       </c>
       <c r="G42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Свердловская область", 80)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Самарская область", 73)</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
@@ -1810,13 +1843,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C43" s="6">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>0</v>
@@ -1829,10 +1862,10 @@
       </c>
       <c r="G43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Самарская область", 89)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Челябинская область", 66)</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
@@ -1841,13 +1874,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C44" s="6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>0</v>
@@ -1860,10 +1893,10 @@
       </c>
       <c r="G44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Челябинская область", 68)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Саратовская область", 66)</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
@@ -1872,13 +1905,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>0</v>
@@ -1891,10 +1924,10 @@
       </c>
       <c r="G45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Саратовская область", 78)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Нижегородская область", 65)</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
@@ -1903,13 +1936,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C46" s="6">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>0</v>
@@ -1922,10 +1955,10 @@
       </c>
       <c r="G46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Нижегородская область", 82)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тюменская область", 34)</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
@@ -1934,13 +1967,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C47" s="6">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>0</v>
@@ -1953,10 +1986,10 @@
       </c>
       <c r="G47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Тюменская область", 11)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Марий Эл", 42)</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
@@ -1965,13 +1998,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>0</v>
@@ -1984,10 +2017,10 @@
       </c>
       <c r="G48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Марий Эл", 27)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Пензенская область", 34)</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
@@ -1996,13 +2029,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>0</v>
@@ -2015,10 +2048,10 @@
       </c>
       <c r="G49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Пензенская область", 32)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Курганская область", 33)</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
@@ -2027,13 +2060,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C50" s="6">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>0</v>
@@ -2046,10 +2079,10 @@
       </c>
       <c r="G50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Курганская область", 44)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Мордовия", 34)</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
@@ -2058,13 +2091,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C51" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>0</v>
@@ -2077,10 +2110,10 @@
       </c>
       <c r="G51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Мордовия", 35)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Пермский край", 34)</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
@@ -2089,13 +2122,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C52" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>0</v>
@@ -2108,10 +2141,10 @@
       </c>
       <c r="G52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Пермский край", 45)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Чувашская Республика", 32)</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
@@ -2120,13 +2153,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="5">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C53" s="6">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>0</v>
@@ -2139,10 +2172,10 @@
       </c>
       <c r="G53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Чувашская Республика", 19)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Центр: другое", 78)</v>
       </c>
       <c r="J53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
@@ -2151,13 +2184,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5">
         <v>46</v>
       </c>
       <c r="C54" s="6">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>0</v>
@@ -2170,10 +2203,10 @@
       </c>
       <c r="G54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Центр: другое", 66)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Краснодарский край", 63)</v>
       </c>
       <c r="J54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
@@ -2182,13 +2215,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C55" s="6">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>0</v>
@@ -2201,10 +2234,10 @@
       </c>
       <c r="G55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Краснодарский край", 48)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ставропольский край", 65)</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
@@ -2213,13 +2246,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C56" s="6">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>0</v>
@@ -2232,10 +2265,10 @@
       </c>
       <c r="G56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ставропольский край", 83)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ростовская область", 65)</v>
       </c>
       <c r="J56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
@@ -2244,13 +2277,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C57" s="6">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>0</v>
@@ -2263,10 +2296,10 @@
       </c>
       <c r="G57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Ростовская область", 102)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Волгоградская область", 65)</v>
       </c>
       <c r="J57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
@@ -2275,7 +2308,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" s="5">
         <v>36</v>
@@ -2294,10 +2327,10 @@
       </c>
       <c r="G58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Волгоградская область", 64)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Воронежская область", 64)</v>
       </c>
       <c r="J58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
@@ -2306,13 +2339,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" s="5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C59" s="6">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>0</v>
@@ -2325,10 +2358,10 @@
       </c>
       <c r="G59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Воронежская область", 75)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Дагестан", 34)</v>
       </c>
       <c r="J59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
@@ -2337,13 +2370,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" s="5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C60" s="6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>0</v>
@@ -2356,10 +2389,10 @@
       </c>
       <c r="G60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Республика Дагестан", 23)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Астраханская область", 31)</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
@@ -2368,13 +2401,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C61" s="6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>0</v>
@@ -2387,10 +2420,10 @@
       </c>
       <c r="G61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Астраханская область", 14)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Липецкая область", 33)</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
@@ -2399,13 +2432,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C62" s="6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>0</v>
@@ -2418,10 +2451,10 @@
       </c>
       <c r="G62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Липецкая область", 32)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Чеченская Республика", 38)</v>
       </c>
       <c r="J62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
@@ -2430,13 +2463,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C63" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>0</v>
@@ -2449,10 +2482,10 @@
       </c>
       <c r="G63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Чеченская Республика", 30)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Брянская область", 35)</v>
       </c>
       <c r="J63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
@@ -2461,13 +2494,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C64" s="6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>0</v>
@@ -2480,26 +2513,20 @@
       </c>
       <c r="G64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Брянская область", 36)</v>
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Юг: другое", 48)</v>
       </c>
       <c r="J64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="5">
-        <v>31</v>
-      </c>
-      <c r="C65" s="6">
-        <v>47</v>
-      </c>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="7" t="s">
         <v>0</v>
       </c>
@@ -2511,17 +2538,10 @@
       </c>
       <c r="G65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "Юг: другое", 47)</v>
-      </c>
-      <c r="J65" t="s">
-        <v>69</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2535,11 +2555,11 @@
         <v>2</v>
       </c>
       <c r="G66" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G66:G82" si="2">D66&amp;A66&amp;E66&amp;C66&amp;F66</f>
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2553,11 +2573,11 @@
         <v>2</v>
       </c>
       <c r="G67" s="7" t="str">
-        <f t="shared" ref="G67:G83" si="2">D67&amp;A67&amp;E67&amp;C67&amp;F67</f>
+        <f t="shared" si="2"/>
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2575,7 +2595,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -2593,7 +2613,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2611,7 +2631,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2629,7 +2649,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2647,7 +2667,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2665,7 +2685,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2683,7 +2703,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2701,7 +2721,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2719,7 +2739,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2737,7 +2757,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2755,7 +2775,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2773,7 +2793,7 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2827,24 +2847,6 @@
         <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G83" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>json_data &lt;- edit_json_file_by_quota_name(json_data, "", )</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
